--- a/сводный.xlsx
+++ b/сводный.xlsx
@@ -25,13 +25,14 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="D6" authorId="0">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">0.4</t>
         </r>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t xml:space="preserve">лемматизированные вопросы-ответы:</t>
   </si>
@@ -50,10 +51,13 @@
     <t xml:space="preserve">всего расхождений</t>
   </si>
   <si>
-    <t xml:space="preserve">расхождений Правда &gt; 0.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Всего Правда &gt; 0.5</t>
+    <t xml:space="preserve">расхождений Правда &gt; score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Доля расхождений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Всего Правда &gt; score</t>
   </si>
   <si>
     <t xml:space="preserve">Всего Правда</t>
@@ -62,22 +66,64 @@
     <t xml:space="preserve">Правда доля от всех</t>
   </si>
   <si>
-    <t xml:space="preserve">Правда &gt; 0.5 доля от всех</t>
+    <t xml:space="preserve">Правда &gt; score доля от всех</t>
   </si>
   <si>
     <t xml:space="preserve">действующий</t>
   </si>
   <si>
-    <t xml:space="preserve">20.12.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27.12.2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28.12.2023</t>
+    <t xml:space="preserve">20.12.2023  &gt; 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27.12.2023  &gt; 0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.12.2023 score &gt; 0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/12/2023 скор &gt; 0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/12/2023 score  &gt; 0.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/12/2023 score  &gt; 0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/12/2023 2153 score  &gt; 0.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/01/2024 1131 score  &gt; 0.3</t>
   </si>
   <si>
     <t xml:space="preserve">не лемматизированные вопросы-ответы:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28.12.2023 скор &gt; 0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/12/2023 скор &gt; 0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/12/2023 скор &gt; 0.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29/12/2023 скор &gt; 0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/12/2023 скор &gt; 0.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30/12/2023 скор &gt; 0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/12/2023 скор &gt; 0.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/12/2023 скор &gt; 0.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31/12/2023 скор &gt; 0.95</t>
   </si>
 </sst>
 </file>
@@ -93,6 +139,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -152,7 +199,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -163,6 +210,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -190,20 +241,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -230,10 +281,13 @@
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>0</v>
@@ -241,124 +295,553 @@
       <c r="C3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="3" t="n">
+        <f aca="false">C3/E3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
         <v>3379</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="F3" s="4" t="n">
         <v>3381</v>
       </c>
-      <c r="F3" s="4" t="n">
+      <c r="G3" s="5" t="n">
+        <f aca="false">F3/5930</f>
+        <v>0.570151770657673</v>
+      </c>
+      <c r="H3" s="5" t="n">
         <f aca="false">E3/5930</f>
-        <v>0.570151770657673</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <f aca="false">D3/5930</f>
         <v>0.569814502529511</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="n">
         <v>1124</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>98</v>
       </c>
       <c r="D4" s="3" t="n">
+        <f aca="false">C4/E4</f>
+        <v>0.0809248554913295</v>
+      </c>
+      <c r="E4" s="4" t="n">
         <v>1211</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="F4" s="4" t="n">
         <v>2835</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="G4" s="5" t="n">
+        <f aca="false">F4/5930</f>
+        <v>0.478077571669477</v>
+      </c>
+      <c r="H4" s="5" t="n">
         <f aca="false">E4/5930</f>
-        <v>0.478077571669477</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <f aca="false">D4/5930</f>
         <v>0.204215851602024</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="n">
         <v>1135</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>61</v>
       </c>
       <c r="D5" s="3" t="n">
+        <f aca="false">C5/E5</f>
+        <v>0.0513036164844407</v>
+      </c>
+      <c r="E5" s="4" t="n">
         <v>1189</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="F5" s="4" t="n">
         <v>2716</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="G5" s="5" t="n">
+        <f aca="false">F5/5930</f>
+        <v>0.458010118043845</v>
+      </c>
+      <c r="H5" s="5" t="n">
         <f aca="false">E5/5930</f>
-        <v>0.458010118043845</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <f aca="false">D5/5930</f>
         <v>0.200505902192243</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="n">
         <v>1152</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>55</v>
       </c>
       <c r="D6" s="3" t="n">
+        <f aca="false">C6/E6</f>
+        <v>0.0606394707828004</v>
+      </c>
+      <c r="E6" s="4" t="n">
         <v>907</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="F6" s="4" t="n">
         <v>2839</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="G6" s="5" t="n">
+        <f aca="false">F6/5930</f>
+        <v>0.478752107925801</v>
+      </c>
+      <c r="H6" s="5" t="n">
         <f aca="false">E6/5930</f>
-        <v>0.478752107925801</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <f aca="false">D6/5930</f>
         <v>0.152951096121417</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>1265</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>61</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <f aca="false">C7/E7</f>
+        <v>0.0541259982253771</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1127</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>2466</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <f aca="false">F7/5930</f>
+        <v>0.415851602023609</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <f aca="false">E7/5930</f>
+        <v>0.190050590219224</v>
+      </c>
+    </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
+      <c r="A8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>1168</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>107</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <f aca="false">C8/E8</f>
+        <v>0.0783308931185944</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>1366</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>2861</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <f aca="false">F8/5930</f>
+        <v>0.482462057335582</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <f aca="false">E8/5930</f>
+        <v>0.23035413153457</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="0" t="n">
+      <c r="A9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>1168</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>223</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <f aca="false">C9/E9</f>
+        <v>0.0984547461368653</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>2265</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>2861</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <f aca="false">F9/5930</f>
+        <v>0.482462057335582</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <f aca="false">E9/5930</f>
+        <v>0.381956155143339</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>1153</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>209</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <f aca="false">C10/E10</f>
+        <v>0.100917431192661</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>2071</v>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>2768</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <f aca="false">F10/5930</f>
+        <v>0.466779089376054</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <f aca="false">E10/5930</f>
+        <v>0.349241146711636</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>1090</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>230</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <f aca="false">C11/E11</f>
+        <v>0.0924065889915629</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>2489</v>
+      </c>
+      <c r="F11" s="4" t="n">
+        <v>2853</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <f aca="false">F11/5930</f>
+        <v>0.481112984822934</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <f aca="false">E11/5930</f>
+        <v>0.419730185497471</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="0" t="n">
         <v>1080</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C16" s="0" t="n">
         <v>322</v>
       </c>
-      <c r="D9" s="2" t="n">
+      <c r="D16" s="3" t="n">
+        <f aca="false">C16/E16</f>
+        <v>0.109337860780985</v>
+      </c>
+      <c r="E16" s="2" t="n">
         <v>2945</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>2945</v>
       </c>
-      <c r="F9" s="4" t="n">
-        <f aca="false">E9/5930</f>
+      <c r="G16" s="5" t="n">
+        <f aca="false">F16/5930</f>
         <v>0.496627318718381</v>
       </c>
-      <c r="G9" s="4" t="n">
-        <f aca="false">D9/5930</f>
+      <c r="H16" s="5" t="n">
+        <f aca="false">E16/5930</f>
         <v>0.496627318718381</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1305</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>837</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <f aca="false">C17/E17</f>
+        <v>0.233733593968165</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>3581</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>4374</v>
+      </c>
+      <c r="G17" s="5" t="n">
+        <f aca="false">F17/5930</f>
+        <v>0.737605396290051</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <f aca="false">E17/5930</f>
+        <v>0.603878583473862</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1305</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>679</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <f aca="false">C18/E18</f>
+        <v>0.216725183530163</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>3133</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>4374</v>
+      </c>
+      <c r="G18" s="5" t="n">
+        <f aca="false">F18/5930</f>
+        <v>0.737605396290051</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <f aca="false">E18/5930</f>
+        <v>0.528330522765599</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1305</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <f aca="false">C19/E19</f>
+        <v>0.105351170568562</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>598</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>4374</v>
+      </c>
+      <c r="G19" s="5" t="n">
+        <f aca="false">F19/5930</f>
+        <v>0.737605396290051</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <f aca="false">E19/5930</f>
+        <v>0.100843170320405</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1105</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="D20" s="3" t="n">
+        <f aca="false">C20/E20</f>
+        <v>0.144110275689223</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>3192</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>3330</v>
+      </c>
+      <c r="G20" s="5" t="n">
+        <f aca="false">F20/5930</f>
+        <v>0.561551433389545</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <f aca="false">E20/5930</f>
+        <v>0.538279932546374</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1105</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="D21" s="3" t="n">
+        <f aca="false">C21/E21</f>
+        <v>0.107521697203472</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2074</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>3330</v>
+      </c>
+      <c r="G21" s="5" t="n">
+        <f aca="false">F21/5930</f>
+        <v>0.561551433389545</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <f aca="false">E21/5930</f>
+        <v>0.349747048903879</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1108</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>377</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <f aca="false">C22/E22</f>
+        <v>0.124545754872811</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>3027</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>3027</v>
+      </c>
+      <c r="G22" s="5" t="n">
+        <f aca="false">F22/5930</f>
+        <v>0.510455311973019</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <f aca="false">E22/5930</f>
+        <v>0.510455311973019</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1108</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>306</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <f aca="false">C23/E23</f>
+        <v>0.10828025477707</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2826</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>3027</v>
+      </c>
+      <c r="G23" s="5" t="n">
+        <f aca="false">F23/5930</f>
+        <v>0.510455311973019</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <f aca="false">E23/5930</f>
+        <v>0.476559865092749</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1108</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>306</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <f aca="false">C24/E24</f>
+        <v>0.10828025477707</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2826</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>3027</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <f aca="false">F24/5930</f>
+        <v>0.510455311973019</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <f aca="false">E24/5930</f>
+        <v>0.476559865092749</v>
       </c>
     </row>
   </sheetData>
